--- a/docentes/Santiago Hernández Mariana Estadisticos 2020.xlsx
+++ b/docentes/Santiago Hernández Mariana Estadisticos 2020.xlsx
@@ -919,7 +919,7 @@
         <v>9</v>
       </c>
       <c r="G2">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
